--- a/final_data_pipeline/output/325180longform.xlsx
+++ b/final_data_pipeline/output/325180longform.xlsx
@@ -4165,7 +4165,7 @@
         <v>223</v>
       </c>
       <c r="AA34">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB34">
         <v>8000</v>
@@ -4257,7 +4257,7 @@
         <v>222</v>
       </c>
       <c r="AA35">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB35">
         <v>8000</v>
@@ -4346,7 +4346,7 @@
         <v>223</v>
       </c>
       <c r="AA36">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB36">
         <v>8000</v>
@@ -4438,7 +4438,7 @@
         <v>222</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB37">
         <v>8000</v>
@@ -5987,7 +5987,7 @@
         <v>223</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -6076,7 +6076,7 @@
         <v>223</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -6168,7 +6168,7 @@
         <v>223</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB56">
         <v>8000</v>
@@ -6260,7 +6260,7 @@
         <v>222</v>
       </c>
       <c r="AA57">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB57">
         <v>8000</v>
@@ -6352,7 +6352,7 @@
         <v>222</v>
       </c>
       <c r="AA58">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB58">
         <v>8000</v>
@@ -6444,7 +6444,7 @@
         <v>222</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -6536,7 +6536,7 @@
         <v>222</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -6628,7 +6628,7 @@
         <v>223</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB61">
         <v>8000</v>
@@ -7450,7 +7450,7 @@
         <v>223</v>
       </c>
       <c r="AA70">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB70">
         <v>8000</v>
@@ -7539,7 +7539,7 @@
         <v>223</v>
       </c>
       <c r="AA71">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB71">
         <v>8000</v>
@@ -7631,7 +7631,7 @@
         <v>222</v>
       </c>
       <c r="AA72">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB72">
         <v>8000</v>
@@ -7723,7 +7723,7 @@
         <v>222</v>
       </c>
       <c r="AA73">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB73">
         <v>8000</v>
@@ -7815,7 +7815,7 @@
         <v>223</v>
       </c>
       <c r="AA74">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB74">
         <v>8000</v>
@@ -7907,7 +7907,7 @@
         <v>222</v>
       </c>
       <c r="AA75">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB75">
         <v>8000</v>
@@ -7996,7 +7996,7 @@
         <v>223</v>
       </c>
       <c r="AA76">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB76">
         <v>8000</v>
@@ -8088,7 +8088,7 @@
         <v>222</v>
       </c>
       <c r="AA77">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB77">
         <v>8000</v>
@@ -10370,7 +10370,7 @@
         <v>223</v>
       </c>
       <c r="AA102">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB102">
         <v>8000</v>
@@ -10459,7 +10459,7 @@
         <v>223</v>
       </c>
       <c r="AA103">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB103">
         <v>8000</v>
@@ -10551,7 +10551,7 @@
         <v>222</v>
       </c>
       <c r="AA104">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB104">
         <v>8000</v>
@@ -10643,7 +10643,7 @@
         <v>222</v>
       </c>
       <c r="AA105">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB105">
         <v>8000</v>
@@ -11465,7 +11465,7 @@
         <v>222</v>
       </c>
       <c r="AA114">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB114">
         <v>8000</v>
@@ -11554,7 +11554,7 @@
         <v>223</v>
       </c>
       <c r="AA115">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB115">
         <v>8000</v>
@@ -11646,7 +11646,7 @@
         <v>222</v>
       </c>
       <c r="AA116">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB116">
         <v>8000</v>
@@ -11738,7 +11738,7 @@
         <v>223</v>
       </c>
       <c r="AA117">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB117">
         <v>8000</v>
@@ -14017,7 +14017,7 @@
         <v>223</v>
       </c>
       <c r="AA142">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB142">
         <v>8000</v>
@@ -14106,7 +14106,7 @@
         <v>223</v>
       </c>
       <c r="AA143">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB143">
         <v>8000</v>
@@ -14198,7 +14198,7 @@
         <v>223</v>
       </c>
       <c r="AA144">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB144">
         <v>8000</v>
@@ -14290,7 +14290,7 @@
         <v>222</v>
       </c>
       <c r="AA145">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB145">
         <v>8000</v>
@@ -14382,7 +14382,7 @@
         <v>223</v>
       </c>
       <c r="AA146">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB146">
         <v>8000</v>
@@ -14474,7 +14474,7 @@
         <v>222</v>
       </c>
       <c r="AA147">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB147">
         <v>8000</v>
@@ -14566,7 +14566,7 @@
         <v>222</v>
       </c>
       <c r="AA148">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB148">
         <v>8000</v>
@@ -14658,7 +14658,7 @@
         <v>222</v>
       </c>
       <c r="AA149">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB149">
         <v>8000</v>
@@ -14750,7 +14750,7 @@
         <v>222</v>
       </c>
       <c r="AA150">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB150">
         <v>8000</v>
@@ -14842,7 +14842,7 @@
         <v>222</v>
       </c>
       <c r="AA151">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB151">
         <v>8000</v>
@@ -14931,7 +14931,7 @@
         <v>223</v>
       </c>
       <c r="AA152">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB152">
         <v>8000</v>
@@ -15023,7 +15023,7 @@
         <v>223</v>
       </c>
       <c r="AA153">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB153">
         <v>8000</v>
@@ -15112,7 +15112,7 @@
         <v>223</v>
       </c>
       <c r="AA154">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB154">
         <v>8000</v>
@@ -15204,7 +15204,7 @@
         <v>222</v>
       </c>
       <c r="AA155">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB155">
         <v>8000</v>
@@ -15296,7 +15296,7 @@
         <v>223</v>
       </c>
       <c r="AA156">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB156">
         <v>8000</v>
@@ -15388,7 +15388,7 @@
         <v>222</v>
       </c>
       <c r="AA157">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB157">
         <v>8000</v>
@@ -15845,7 +15845,7 @@
         <v>223</v>
       </c>
       <c r="AA162">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB162">
         <v>8000</v>
@@ -15934,7 +15934,7 @@
         <v>223</v>
       </c>
       <c r="AA163">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB163">
         <v>8000</v>
@@ -16026,7 +16026,7 @@
         <v>222</v>
       </c>
       <c r="AA164">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB164">
         <v>8000</v>
@@ -16118,7 +16118,7 @@
         <v>222</v>
       </c>
       <c r="AA165">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB165">
         <v>8000</v>
@@ -18400,7 +18400,7 @@
         <v>222</v>
       </c>
       <c r="AA190">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB190">
         <v>8000</v>
@@ -18492,7 +18492,7 @@
         <v>222</v>
       </c>
       <c r="AA191">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB191">
         <v>8000</v>
@@ -18584,7 +18584,7 @@
         <v>223</v>
       </c>
       <c r="AA192">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB192">
         <v>8000</v>
@@ -18673,7 +18673,7 @@
         <v>223</v>
       </c>
       <c r="AA193">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB193">
         <v>8000</v>
@@ -19127,7 +19127,7 @@
         <v>223</v>
       </c>
       <c r="AA198">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB198">
         <v>8000</v>
@@ -19219,7 +19219,7 @@
         <v>222</v>
       </c>
       <c r="AA199">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB199">
         <v>8000</v>
@@ -19311,7 +19311,7 @@
         <v>222</v>
       </c>
       <c r="AA200">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB200">
         <v>8000</v>
@@ -19403,7 +19403,7 @@
         <v>223</v>
       </c>
       <c r="AA201">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB201">
         <v>8000</v>
@@ -19498,7 +19498,7 @@
         <v>223</v>
       </c>
       <c r="AA202">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB202">
         <v>8000</v>
@@ -19590,7 +19590,7 @@
         <v>222</v>
       </c>
       <c r="AA203">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB203">
         <v>8000</v>
@@ -19679,7 +19679,7 @@
         <v>223</v>
       </c>
       <c r="AA204">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB204">
         <v>8000</v>
@@ -19771,7 +19771,7 @@
         <v>222</v>
       </c>
       <c r="AA205">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB205">
         <v>8000</v>
@@ -19860,7 +19860,7 @@
         <v>223</v>
       </c>
       <c r="AA206">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB206">
         <v>8000</v>
@@ -19952,7 +19952,7 @@
         <v>222</v>
       </c>
       <c r="AA207">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB207">
         <v>8000</v>
@@ -20044,7 +20044,7 @@
         <v>222</v>
       </c>
       <c r="AA208">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB208">
         <v>8000</v>
@@ -20136,7 +20136,7 @@
         <v>223</v>
       </c>
       <c r="AA209">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AB209">
         <v>8000</v>
@@ -20228,7 +20228,7 @@
         <v>223</v>
       </c>
       <c r="AA210">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB210">
         <v>8000</v>
@@ -20320,7 +20320,7 @@
         <v>223</v>
       </c>
       <c r="AA211">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB211">
         <v>8000</v>
@@ -20412,7 +20412,7 @@
         <v>223</v>
       </c>
       <c r="AA212">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB212">
         <v>8000</v>
@@ -20504,7 +20504,7 @@
         <v>223</v>
       </c>
       <c r="AA213">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB213">
         <v>8000</v>
@@ -20596,7 +20596,7 @@
         <v>223</v>
       </c>
       <c r="AA214">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB214">
         <v>8000</v>
@@ -20688,7 +20688,7 @@
         <v>223</v>
       </c>
       <c r="AA215">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB215">
         <v>8000</v>
@@ -20780,7 +20780,7 @@
         <v>223</v>
       </c>
       <c r="AA216">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB216">
         <v>8000</v>
@@ -20872,7 +20872,7 @@
         <v>223</v>
       </c>
       <c r="AA217">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB217">
         <v>8000</v>
@@ -20964,7 +20964,7 @@
         <v>223</v>
       </c>
       <c r="AA218">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB218">
         <v>8000</v>
@@ -21056,7 +21056,7 @@
         <v>222</v>
       </c>
       <c r="AA219">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB219">
         <v>8000</v>
@@ -21148,7 +21148,7 @@
         <v>222</v>
       </c>
       <c r="AA220">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB220">
         <v>8000</v>
@@ -21240,7 +21240,7 @@
         <v>222</v>
       </c>
       <c r="AA221">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB221">
         <v>8000</v>
@@ -21332,7 +21332,7 @@
         <v>222</v>
       </c>
       <c r="AA222">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB222">
         <v>8000</v>
@@ -21424,7 +21424,7 @@
         <v>222</v>
       </c>
       <c r="AA223">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB223">
         <v>8000</v>
@@ -21516,7 +21516,7 @@
         <v>222</v>
       </c>
       <c r="AA224">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB224">
         <v>8000</v>
@@ -21608,7 +21608,7 @@
         <v>222</v>
       </c>
       <c r="AA225">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB225">
         <v>8000</v>
@@ -21700,7 +21700,7 @@
         <v>222</v>
       </c>
       <c r="AA226">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB226">
         <v>8000</v>
@@ -21792,7 +21792,7 @@
         <v>222</v>
       </c>
       <c r="AA227">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB227">
         <v>8000</v>
@@ -21884,7 +21884,7 @@
         <v>222</v>
       </c>
       <c r="AA228">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB228">
         <v>8000</v>
@@ -21976,7 +21976,7 @@
         <v>222</v>
       </c>
       <c r="AA229">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB229">
         <v>8000</v>
@@ -22068,7 +22068,7 @@
         <v>222</v>
       </c>
       <c r="AA230">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB230">
         <v>8000</v>
@@ -22160,7 +22160,7 @@
         <v>223</v>
       </c>
       <c r="AA231">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB231">
         <v>8000</v>
@@ -22252,7 +22252,7 @@
         <v>223</v>
       </c>
       <c r="AA232">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB232">
         <v>8000</v>
@@ -22344,7 +22344,7 @@
         <v>223</v>
       </c>
       <c r="AA233">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB233">
         <v>8000</v>
@@ -22436,7 +22436,7 @@
         <v>222</v>
       </c>
       <c r="AA234">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB234">
         <v>8000</v>
@@ -22525,7 +22525,7 @@
         <v>223</v>
       </c>
       <c r="AA235">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB235">
         <v>8000</v>
@@ -22614,7 +22614,7 @@
         <v>223</v>
       </c>
       <c r="AA236">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB236">
         <v>8000</v>
@@ -22703,7 +22703,7 @@
         <v>223</v>
       </c>
       <c r="AA237">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB237">
         <v>8000</v>
@@ -22792,7 +22792,7 @@
         <v>223</v>
       </c>
       <c r="AA238">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB238">
         <v>8000</v>
@@ -22881,7 +22881,7 @@
         <v>223</v>
       </c>
       <c r="AA239">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB239">
         <v>8000</v>
@@ -22970,7 +22970,7 @@
         <v>223</v>
       </c>
       <c r="AA240">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB240">
         <v>8000</v>
@@ -23062,7 +23062,7 @@
         <v>222</v>
       </c>
       <c r="AA241">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB241">
         <v>8000</v>
@@ -23154,7 +23154,7 @@
         <v>222</v>
       </c>
       <c r="AA242">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB242">
         <v>8000</v>
@@ -23246,7 +23246,7 @@
         <v>222</v>
       </c>
       <c r="AA243">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB243">
         <v>8000</v>
@@ -23335,7 +23335,7 @@
         <v>223</v>
       </c>
       <c r="AA244">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB244">
         <v>8000</v>
@@ -23427,7 +23427,7 @@
         <v>222</v>
       </c>
       <c r="AA245">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB245">
         <v>8000</v>
@@ -23519,7 +23519,7 @@
         <v>222</v>
       </c>
       <c r="AA246">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB246">
         <v>8000</v>
@@ -23611,7 +23611,7 @@
         <v>222</v>
       </c>
       <c r="AA247">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB247">
         <v>8000</v>
@@ -23703,7 +23703,7 @@
         <v>222</v>
       </c>
       <c r="AA248">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB248">
         <v>8000</v>
@@ -23795,7 +23795,7 @@
         <v>222</v>
       </c>
       <c r="AA249">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB249">
         <v>8000</v>
@@ -23887,7 +23887,7 @@
         <v>222</v>
       </c>
       <c r="AA250">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB250">
         <v>8000</v>
@@ -23979,7 +23979,7 @@
         <v>222</v>
       </c>
       <c r="AA251">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB251">
         <v>8000</v>
@@ -24068,7 +24068,7 @@
         <v>223</v>
       </c>
       <c r="AA252">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB252">
         <v>8000</v>
@@ -24157,7 +24157,7 @@
         <v>223</v>
       </c>
       <c r="AA253">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB253">
         <v>8000</v>
@@ -24246,7 +24246,7 @@
         <v>223</v>
       </c>
       <c r="AA254">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB254">
         <v>8000</v>
@@ -24335,7 +24335,7 @@
         <v>223</v>
       </c>
       <c r="AA255">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB255">
         <v>8000</v>
@@ -24427,7 +24427,7 @@
         <v>222</v>
       </c>
       <c r="AA256">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB256">
         <v>8000</v>
@@ -24516,7 +24516,7 @@
         <v>223</v>
       </c>
       <c r="AA257">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB257">
         <v>8000</v>
@@ -24970,7 +24970,7 @@
         <v>223</v>
       </c>
       <c r="AA262">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB262">
         <v>8000</v>
@@ -25062,7 +25062,7 @@
         <v>223</v>
       </c>
       <c r="AA263">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB263">
         <v>8000</v>
@@ -25154,7 +25154,7 @@
         <v>222</v>
       </c>
       <c r="AA264">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB264">
         <v>8000</v>
@@ -25246,7 +25246,7 @@
         <v>222</v>
       </c>
       <c r="AA265">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB265">
         <v>8000</v>
@@ -25338,7 +25338,7 @@
         <v>223</v>
       </c>
       <c r="AA266">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB266">
         <v>8000</v>
@@ -25427,7 +25427,7 @@
         <v>223</v>
       </c>
       <c r="AA267">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB267">
         <v>8000</v>
@@ -25519,7 +25519,7 @@
         <v>222</v>
       </c>
       <c r="AA268">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB268">
         <v>8000</v>
@@ -25611,7 +25611,7 @@
         <v>222</v>
       </c>
       <c r="AA269">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB269">
         <v>8000</v>
@@ -30448,7 +30448,7 @@
         <v>223</v>
       </c>
       <c r="AA322">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB322">
         <v>8000</v>
@@ -30540,7 +30540,7 @@
         <v>222</v>
       </c>
       <c r="AA323">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB323">
         <v>8000</v>
@@ -30632,7 +30632,7 @@
         <v>222</v>
       </c>
       <c r="AA324">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB324">
         <v>8000</v>
@@ -30721,7 +30721,7 @@
         <v>223</v>
       </c>
       <c r="AA325">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB325">
         <v>8000</v>
@@ -30813,7 +30813,7 @@
         <v>223</v>
       </c>
       <c r="AA326">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB326">
         <v>8000</v>
@@ -30902,7 +30902,7 @@
         <v>223</v>
       </c>
       <c r="AA327">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB327">
         <v>8000</v>
@@ -30994,7 +30994,7 @@
         <v>222</v>
       </c>
       <c r="AA328">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB328">
         <v>8000</v>
@@ -31086,7 +31086,7 @@
         <v>222</v>
       </c>
       <c r="AA329">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB329">
         <v>8000</v>
@@ -31178,7 +31178,7 @@
         <v>222</v>
       </c>
       <c r="AA330">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB330">
         <v>8000</v>
@@ -31270,7 +31270,7 @@
         <v>223</v>
       </c>
       <c r="AA331">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB331">
         <v>8000</v>
@@ -31362,7 +31362,7 @@
         <v>223</v>
       </c>
       <c r="AA332">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB332">
         <v>8000</v>
@@ -31451,7 +31451,7 @@
         <v>223</v>
       </c>
       <c r="AA333">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB333">
         <v>8000</v>
@@ -31540,7 +31540,7 @@
         <v>223</v>
       </c>
       <c r="AA334">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB334">
         <v>8000</v>
@@ -31629,7 +31629,7 @@
         <v>223</v>
       </c>
       <c r="AA335">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB335">
         <v>8000</v>
@@ -31721,7 +31721,7 @@
         <v>222</v>
       </c>
       <c r="AA336">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB336">
         <v>8000</v>
@@ -31813,7 +31813,7 @@
         <v>222</v>
       </c>
       <c r="AA337">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB337">
         <v>8000</v>
@@ -31905,7 +31905,7 @@
         <v>223</v>
       </c>
       <c r="AA338">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB338">
         <v>8000</v>
@@ -31997,7 +31997,7 @@
         <v>222</v>
       </c>
       <c r="AA339">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB339">
         <v>8000</v>
@@ -32089,7 +32089,7 @@
         <v>222</v>
       </c>
       <c r="AA340">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB340">
         <v>8000</v>
@@ -32178,7 +32178,7 @@
         <v>223</v>
       </c>
       <c r="AA341">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB341">
         <v>8000</v>
@@ -32270,7 +32270,7 @@
         <v>223</v>
       </c>
       <c r="AA342">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB342">
         <v>8000</v>
@@ -32359,7 +32359,7 @@
         <v>223</v>
       </c>
       <c r="AA343">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB343">
         <v>8000</v>
@@ -32451,7 +32451,7 @@
         <v>222</v>
       </c>
       <c r="AA344">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB344">
         <v>8000</v>
@@ -32543,7 +32543,7 @@
         <v>222</v>
       </c>
       <c r="AA345">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB345">
         <v>8000</v>
@@ -32635,7 +32635,7 @@
         <v>222</v>
       </c>
       <c r="AA346">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB346">
         <v>8000</v>
@@ -32727,7 +32727,7 @@
         <v>222</v>
       </c>
       <c r="AA347">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB347">
         <v>8000</v>
@@ -32819,7 +32819,7 @@
         <v>222</v>
       </c>
       <c r="AA348">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB348">
         <v>8000</v>
@@ -32911,7 +32911,7 @@
         <v>223</v>
       </c>
       <c r="AA349">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB349">
         <v>8000</v>
@@ -35193,7 +35193,7 @@
         <v>223</v>
       </c>
       <c r="AA374">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB374">
         <v>8000</v>
@@ -35285,7 +35285,7 @@
         <v>222</v>
       </c>
       <c r="AA375">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB375">
         <v>8000</v>
@@ -35377,7 +35377,7 @@
         <v>222</v>
       </c>
       <c r="AA376">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB376">
         <v>8000</v>
@@ -35466,7 +35466,7 @@
         <v>223</v>
       </c>
       <c r="AA377">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB377">
         <v>8000</v>
@@ -35558,7 +35558,7 @@
         <v>222</v>
       </c>
       <c r="AA378">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB378">
         <v>8000</v>
@@ -35650,7 +35650,7 @@
         <v>222</v>
       </c>
       <c r="AA379">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB379">
         <v>8000</v>
@@ -35742,7 +35742,7 @@
         <v>223</v>
       </c>
       <c r="AA380">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB380">
         <v>8000</v>
@@ -35831,7 +35831,7 @@
         <v>223</v>
       </c>
       <c r="AA381">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB381">
         <v>8000</v>
@@ -35920,7 +35920,7 @@
         <v>223</v>
       </c>
       <c r="AA382">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB382">
         <v>8000</v>
@@ -36012,7 +36012,7 @@
         <v>222</v>
       </c>
       <c r="AA383">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB383">
         <v>8000</v>
@@ -36104,7 +36104,7 @@
         <v>223</v>
       </c>
       <c r="AA384">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB384">
         <v>8000</v>
@@ -36196,7 +36196,7 @@
         <v>222</v>
       </c>
       <c r="AA385">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AB385">
         <v>8000</v>
@@ -37745,7 +37745,7 @@
         <v>223</v>
       </c>
       <c r="AA402">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB402">
         <v>8000</v>
@@ -37837,7 +37837,7 @@
         <v>222</v>
       </c>
       <c r="AA403">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB403">
         <v>8000</v>
@@ -37929,7 +37929,7 @@
         <v>222</v>
       </c>
       <c r="AA404">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB404">
         <v>8000</v>
@@ -38021,7 +38021,7 @@
         <v>223</v>
       </c>
       <c r="AA405">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB405">
         <v>8000</v>
@@ -38110,7 +38110,7 @@
         <v>223</v>
       </c>
       <c r="AA406">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB406">
         <v>8000</v>
@@ -38202,7 +38202,7 @@
         <v>223</v>
       </c>
       <c r="AA407">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB407">
         <v>8000</v>
@@ -38294,7 +38294,7 @@
         <v>222</v>
       </c>
       <c r="AA408">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB408">
         <v>8000</v>
@@ -38386,7 +38386,7 @@
         <v>222</v>
       </c>
       <c r="AA409">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB409">
         <v>8000</v>
@@ -38478,7 +38478,7 @@
         <v>222</v>
       </c>
       <c r="AA410">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB410">
         <v>8000</v>
@@ -38570,7 +38570,7 @@
         <v>222</v>
       </c>
       <c r="AA411">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB411">
         <v>8000</v>
@@ -38662,7 +38662,7 @@
         <v>222</v>
       </c>
       <c r="AA412">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB412">
         <v>8000</v>
@@ -38754,7 +38754,7 @@
         <v>222</v>
       </c>
       <c r="AA413">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB413">
         <v>8000</v>
@@ -38846,7 +38846,7 @@
         <v>222</v>
       </c>
       <c r="AA414">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB414">
         <v>8000</v>
@@ -38938,7 +38938,7 @@
         <v>223</v>
       </c>
       <c r="AA415">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB415">
         <v>8000</v>
@@ -39030,7 +39030,7 @@
         <v>223</v>
       </c>
       <c r="AA416">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB416">
         <v>8000</v>
@@ -39122,7 +39122,7 @@
         <v>223</v>
       </c>
       <c r="AA417">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB417">
         <v>8000</v>
@@ -39211,7 +39211,7 @@
         <v>223</v>
       </c>
       <c r="AA418">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB418">
         <v>8000</v>
@@ -39300,7 +39300,7 @@
         <v>223</v>
       </c>
       <c r="AA419">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB419">
         <v>8000</v>
@@ -39389,7 +39389,7 @@
         <v>223</v>
       </c>
       <c r="AA420">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB420">
         <v>8000</v>
@@ -39478,7 +39478,7 @@
         <v>223</v>
       </c>
       <c r="AA421">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB421">
         <v>8000</v>
@@ -39567,7 +39567,7 @@
         <v>223</v>
       </c>
       <c r="AA422">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB422">
         <v>8000</v>
@@ -39659,7 +39659,7 @@
         <v>223</v>
       </c>
       <c r="AA423">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB423">
         <v>8000</v>
@@ -39751,7 +39751,7 @@
         <v>223</v>
       </c>
       <c r="AA424">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB424">
         <v>8000</v>
@@ -39843,7 +39843,7 @@
         <v>222</v>
       </c>
       <c r="AA425">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB425">
         <v>8000</v>
@@ -39935,7 +39935,7 @@
         <v>222</v>
       </c>
       <c r="AA426">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB426">
         <v>8000</v>
@@ -40027,7 +40027,7 @@
         <v>222</v>
       </c>
       <c r="AA427">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB427">
         <v>8000</v>
@@ -40119,7 +40119,7 @@
         <v>222</v>
       </c>
       <c r="AA428">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB428">
         <v>8000</v>
@@ -40211,7 +40211,7 @@
         <v>222</v>
       </c>
       <c r="AA429">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB429">
         <v>8000</v>
@@ -40303,7 +40303,7 @@
         <v>222</v>
       </c>
       <c r="AA430">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB430">
         <v>8000</v>
@@ -40392,7 +40392,7 @@
         <v>223</v>
       </c>
       <c r="AA431">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB431">
         <v>8000</v>
@@ -40484,7 +40484,7 @@
         <v>222</v>
       </c>
       <c r="AA432">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB432">
         <v>8000</v>
@@ -40576,7 +40576,7 @@
         <v>223</v>
       </c>
       <c r="AA433">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AB433">
         <v>8000</v>
